--- a/data/trans_bre/P1432-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1432-Edad-trans_bre.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9942704217784034</v>
+        <v>1.035781529006351</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2726820505365081</v>
+        <v>-0.2739983707755024</v>
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="inlineStr"/>
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7399526105270748</v>
+        <v>0.6321970297147042</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6840689127481352</v>
+        <v>-0.6753172550084636</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6250115850347222</v>
+        <v>-0.6299755552845068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1329304225732943</v>
+        <v>0.1323304903935022</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
@@ -778,13 +778,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4405033493590026</v>
+        <v>0.5626861212743323</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5258343118092632</v>
+        <v>0.4080802527796407</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.161706625387693</v>
+        <v>1.26305211318996</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
@@ -828,13 +828,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.3152779941635636</v>
+        <v>-0.3416755369313738</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.6541210834481301</v>
+        <v>-0.4925254126785663</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01136403419653398</v>
+        <v>0.003521101800565643</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
@@ -848,13 +848,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.56663348941141</v>
+        <v>1.447338406556563</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9031544206068425</v>
+        <v>1.033527965521792</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.281735008454315</v>
+        <v>1.293466217177097</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
@@ -898,19 +898,19 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6531117925039722</v>
+        <v>-0.4941436456992653</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4176504885851581</v>
+        <v>0.4207288974109331</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4105999398995326</v>
+        <v>0.4566111777757213</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.4867433910748892</v>
+        <v>-0.3982717221087135</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2031427902531439</v>
+        <v>-0.05291092260978989</v>
       </c>
       <c r="H17" s="6" t="inlineStr"/>
     </row>
@@ -922,16 +922,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.979253263338124</v>
+        <v>3.1535265250008</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.651846067310417</v>
+        <v>3.616265668428781</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.011114328459338</v>
+        <v>3.103050406093554</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5.963439433202887</v>
+        <v>6.692585201883919</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.330967843968739</v>
+        <v>-3.581991506240257</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.485096711729907</v>
+        <v>-4.256970877208581</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.1767958072602604</v>
+        <v>-0.2033094412834713</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6276316023332013</v>
+        <v>-0.6727984347881515</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7787923008827665</v>
+        <v>-0.7481720043048344</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3564066994252171</v>
+        <v>-0.423024137988969</v>
       </c>
     </row>
     <row r="21">
@@ -1000,22 +1000,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.269985308201562</v>
+        <v>2.304389231660676</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.686274944336397</v>
+        <v>1.784184402249433</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.597841239680034</v>
+        <v>3.41645184756148</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9763290457894968</v>
+        <v>1.082068388288129</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9372702654424573</v>
+        <v>1.012803724794019</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>15.58097618623823</v>
+        <v>15.42884429625489</v>
       </c>
     </row>
     <row r="22">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.5711791798344</v>
+        <v>-5.481767036694833</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.307919654128749</v>
+        <v>3.028638863553233</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.949364246929718</v>
+        <v>-1.825377133711663</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.5384446184105601</v>
+        <v>-0.543741944754383</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7207316923249327</v>
+        <v>0.5624500383832256</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3456914411573407</v>
+        <v>-0.3153116049314476</v>
       </c>
     </row>
     <row r="24">
@@ -1082,22 +1082,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.612790143705816</v>
+        <v>3.313497948347712</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.893746052760132</v>
+        <v>10.0537316061944</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.353453902054272</v>
+        <v>5.599900065771431</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.7835351113552919</v>
+        <v>0.7854457410646711</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>13.30843570761117</v>
+        <v>10.50988145152563</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.516646305222923</v>
+        <v>1.900923380723273</v>
       </c>
     </row>
     <row r="25">
@@ -1138,22 +1138,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.1255772472221171</v>
+        <v>-0.2157742994308977</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4644574677156977</v>
+        <v>0.4518312428049212</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4754968360934898</v>
+        <v>0.48877150878826</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.09260272553282041</v>
+        <v>-0.1582748550470676</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5011786781532336</v>
+        <v>0.4197811549058803</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6205112419423807</v>
+        <v>0.6430329846586753</v>
       </c>
     </row>
     <row r="27">
@@ -1164,22 +1164,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.035094881563533</v>
+        <v>0.9626595356493307</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.500444454079383</v>
+        <v>1.567662227409584</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.456506839290996</v>
+        <v>1.472357621256043</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.212092442221403</v>
+        <v>1.068432436572221</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.223063914969209</v>
+        <v>3.429711141219751</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.930625754321626</v>
+        <v>3.99438893674884</v>
       </c>
     </row>
     <row r="28">
